--- a/outputs/ML_Results/mode_MNLR/All_short_edit_mode.xlsx
+++ b/outputs/ML_Results/mode_MNLR/All_short_edit_mode.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\mode_MNLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CC19FDF8-CACE-474F-A263-EBB3654841CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C2565B-F92D-40E4-AA73-D531F403F7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_short" sheetId="1" r:id="rId1"/>
     <sheet name="simple" sheetId="2" r:id="rId2"/>
+    <sheet name="simple_new" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="53">
   <si>
     <t>city</t>
   </si>
@@ -290,10 +304,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -796,23 +810,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1178,7 +1189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3763,11 +3774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4529,15 +4540,13 @@
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="12" t="s">
+      <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
@@ -4555,42 +4564,42 @@
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="12" t="s">
+      <c r="B42" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="5">
         <v>-0.162003079656273</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="6">
         <v>9.0287857905754595E-2</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="5">
         <v>0.26150240305442901</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="5">
         <v>-0.612455166180081</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="5">
         <v>7.6322084623432401E-2</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="5">
         <v>0.41580963050747199</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="12" t="s">
+      <c r="B43" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15">
+      <c r="C43" s="5"/>
+      <c r="D43" s="6">
         <v>-6.4406680846331998E-3</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5">
         <v>-5.9116775794653001E-3</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="5">
         <v>-9.8474459320970001E-3</v>
       </c>
     </row>
@@ -4983,4 +4992,1218 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBE705A-AFB0-4320-903C-A782D598BFEE}">
+  <dimension ref="B1:N105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A13" activeCellId="2" sqref="A51:XFD51 A32:XFD32 A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6">
+        <v>6.81193294896454E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.31312394405584298</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-0.19733814224037299</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.26163286133462899</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.54885212716820497</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>-1.6538749116057599E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-8.8939084241175005E-3</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5">
+        <v>-6.7717503668805997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-2.8680838625362401</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-2.54022914997226</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-3.2250819625449898</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-2.2896399243159702</v>
+      </c>
+      <c r="G6" s="5">
+        <v>-2.5521547900000501</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-2.8835866190145598</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-3.052504451233E-4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-1.6713107448949E-3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.0771797528076801E-5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-4.2248338836229997E-4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>-2.9447449951432001E-3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1.329519592191E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.61536659650950498</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.8721629782907101</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.51657287284060605</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.2538560137625501</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.99264362015140595</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.48350699855034</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.24176803080876799</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.60862650023487697</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.59669006765921495</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.2883674191544201</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1.84539830835318</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2.4881480764591601</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
+        <v>0.51998044357127504</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.31412237130660797</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.11000787993053</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.70434209826502703</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1.1019976451836699</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.36277066082427</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.95519242901994805</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1.27918897544907</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2.2011841338183</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1.24015421854543</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2.0490936920094498</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5">
+        <v>-0.344069700126519</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.34606831810420902</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5">
+        <v>1.1926511883409201</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5">
+        <v>-4.2344433139722699E-2</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
+        <v>-2.79905668041102E-2</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <v>-7.4805493462253597E-2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>-9.37320373906151E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
+        <v>-4.0003887571537798E-2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-2.9606344732727101E-2</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="12">
+        <v>3.7807141801901099E-5</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4.1458847287158798E-5</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1.9172460003247799E-5</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>1.69697622054172E-5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1.02854362753854E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7">
+        <v>2.31416598723076E-8</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1.9857111606779099E-8</v>
+      </c>
+      <c r="F16" s="7">
+        <v>4.0124505118594997E-8</v>
+      </c>
+      <c r="G16" s="7">
+        <v>3.67767618663683E-8</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2.9951242487072902E-8</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5">
+        <v>1.8377675238141499E-2</v>
+      </c>
+      <c r="G17" s="5">
+        <v>9.2652670212401006E-3</v>
+      </c>
+      <c r="H17" s="5">
+        <v>7.9883244179392993E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5">
+        <v>-5.0204304910415999E-3</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
+        <v>2.2903338393779601E-2</v>
+      </c>
+      <c r="G18" s="6">
+        <v>6.2823715206653998E-3</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
+        <v>-1.1227367232002799E-2</v>
+      </c>
+      <c r="E19" s="5">
+        <v>-1.0052801377306299E-2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3.1415000387379301E-2</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="5">
+        <v>-7.93045752573515E-3</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-9.6700618281206699E-3</v>
+      </c>
+      <c r="E20" s="5">
+        <v>-3.19518319627144E-3</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5">
+        <v>-6.12536191647459E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
+        <v>5.2789597494338697E-3</v>
+      </c>
+      <c r="E21" s="5">
+        <v>4.8231222515260604E-3</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
+        <v>-1.4735616569284999E-2</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5">
+        <v>-1.38489706217649</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.14614842122483901</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.53398980644152505</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5">
+        <v>0.23691735772733999</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.49493217423185698</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <v>-2.7963950953635099E-2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3.4807146569821E-3</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5">
+        <v>-1.5380876092874699E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="5">
+        <v>-1.9516297649021701</v>
+      </c>
+      <c r="D25" s="5">
+        <v>-1.7697957845741601</v>
+      </c>
+      <c r="E25" s="5">
+        <v>-2.2991316957815702</v>
+      </c>
+      <c r="F25" s="5">
+        <v>-1.7441879399039999</v>
+      </c>
+      <c r="G25" s="5">
+        <v>-1.8648671247289099</v>
+      </c>
+      <c r="H25" s="5">
+        <v>-2.1622650574860298</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="5">
+        <v>-2.6636938308609998E-4</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-1.5264225956471999E-3</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1.5472840569711201E-5</v>
+      </c>
+      <c r="F26" s="5">
+        <v>-2.1526471935230001E-4</v>
+      </c>
+      <c r="G26" s="5">
+        <v>-1.0169183878035999E-3</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1.70965181243935</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1.5438549075482999</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1.5161227886042501</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1.4263212226383</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1.6491849930189499</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1.4682783273130999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5">
+        <v>1.51538894900037</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1.6869470510889999</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5">
+        <v>1.4384512261234801</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2.25504311180473</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5">
+        <v>1.1384829700294099</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.996048731189357</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.97604508939077095</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1.2186882205787599</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.76337237513689105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1.8048796564965399</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.86495448403543496</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1.67997431187659</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1.7546706232245699</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.79494994357517401</v>
+      </c>
+      <c r="H30" s="5">
+        <v>1.95512845401225</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5">
+        <v>0.70442377833412695</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1.26746177324696</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6">
+        <v>0.94545602190433398</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.91923683416204405</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5">
+        <v>-1.2479049108465199E-2</v>
+      </c>
+      <c r="E32" s="5">
+        <v>-5.1281973664379102E-2</v>
+      </c>
+      <c r="F32" s="6">
+        <v>-7.8429135681896994E-2</v>
+      </c>
+      <c r="G32" s="5">
+        <v>-0.12728156023876699</v>
+      </c>
+      <c r="H32" s="5">
+        <v>-0.12949030099217501</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5">
+        <v>-2.3784478284540202E-2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>-8.8307801324223004E-3</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="7">
+        <v>3.2963733444338198E-5</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2.6470748771857599E-5</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="7">
+        <v>5.6336370645697901E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="7">
+        <v>3.7730538097698698E-9</v>
+      </c>
+      <c r="E35" s="7">
+        <v>4.8032277531066603E-9</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1.1136446490712E-2</v>
+      </c>
+      <c r="D36" s="5">
+        <v>4.6782831028343999E-3</v>
+      </c>
+      <c r="E36" s="5">
+        <v>4.2897212663801001E-3</v>
+      </c>
+      <c r="F36" s="5">
+        <v>-2.1421185295713099E-2</v>
+      </c>
+      <c r="G36" s="6">
+        <v>8.3716923832629006E-3</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6">
+        <v>9.4133318592069994E-3</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="6">
+        <v>5.88713144482838E-2</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1.5803394448803101E-2</v>
+      </c>
+      <c r="E38" s="5">
+        <v>8.8523917370755892E-3</v>
+      </c>
+      <c r="F38" s="6">
+        <v>3.6075787334449598E-2</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1.1078317789123601E-2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>-6.0503277637452496E-3</v>
+      </c>
+      <c r="E39" s="5">
+        <v>-9.1856536529724402E-3</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5">
+        <v>1.04621042134315E-2</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="5">
+        <v>-0.15993841991584201</v>
+      </c>
+      <c r="D42" s="6">
+        <v>9.5708543141808294E-2</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.26387832053351901</v>
+      </c>
+      <c r="F42" s="5">
+        <v>-0.61073392119149295</v>
+      </c>
+      <c r="G42" s="5">
+        <v>7.3757926934740203E-2</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.41326195685823802</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5">
+        <v>-8.0628252040823994E-3</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5">
+        <v>-5.5948766313514003E-3</v>
+      </c>
+      <c r="H43" s="5">
+        <v>-9.6473951735922998E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="5">
+        <v>-3.0427660067189599</v>
+      </c>
+      <c r="D44" s="5">
+        <v>-2.8388497895663498</v>
+      </c>
+      <c r="E44" s="5">
+        <v>-3.4954386887370101</v>
+      </c>
+      <c r="F44" s="5">
+        <v>-2.2164090951917799</v>
+      </c>
+      <c r="G44" s="5">
+        <v>-2.4839319966430602</v>
+      </c>
+      <c r="H44" s="5">
+        <v>-3.107665566374</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="5">
+        <v>-3.4425999603729997E-4</v>
+      </c>
+      <c r="D45" s="5">
+        <v>-1.6147178432342E-3</v>
+      </c>
+      <c r="E45" s="5">
+        <v>-1.1084783482873699E-5</v>
+      </c>
+      <c r="F45" s="5">
+        <v>-3.052835025028E-4</v>
+      </c>
+      <c r="G45" s="5">
+        <v>-1.7601613576197E-3</v>
+      </c>
+      <c r="H45" s="5">
+        <v>3.9144635580140598E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.727969011029865</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1.88268551140254</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.58956037359737701</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1.8659744374323199</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1.7739176534444501</v>
+      </c>
+      <c r="H46" s="5">
+        <v>1.67908640863879</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.42825234986460198</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.94347709594128204</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.93158975642420405</v>
+      </c>
+      <c r="F47" s="5">
+        <v>2.0798232293155401</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2.0192781953174501</v>
+      </c>
+      <c r="H47" s="5">
+        <v>2.4901644160680698</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5">
+        <v>0.70765657374200996</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.51264135289555701</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1.17075714781588</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.801763890559827</v>
+      </c>
+      <c r="H48" s="5">
+        <v>1.23375840466588</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1.25691918489956</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.74898064132311304</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1.3454246384320001</v>
+      </c>
+      <c r="F49" s="5">
+        <v>2.12837360759326</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.75601052559170301</v>
+      </c>
+      <c r="H49" s="5">
+        <v>1.7617982427219001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5">
+        <v>0.55480500862419502</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5">
+        <v>1.2180274242168001</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.60533004214918795</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1.6733170973810001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5">
+        <v>-2.3750919140562401E-2</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5">
+        <v>-6.2022947460903297E-2</v>
+      </c>
+      <c r="G51" s="5">
+        <v>-4.5160884147445603E-2</v>
+      </c>
+      <c r="H51" s="5">
+        <v>-8.0239682010539104E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="5">
+        <v>-3.8116711005647202E-2</v>
+      </c>
+      <c r="D52" s="5">
+        <v>4.5611411148887698E-2</v>
+      </c>
+      <c r="E52" s="6">
+        <v>3.1955700418917703E-2</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5">
+        <v>2.18997811207268E-2</v>
+      </c>
+      <c r="H52" s="5">
+        <v>1.7504548581026801E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="7">
+        <v>4.6262111513527902E-5</v>
+      </c>
+      <c r="D53" s="7">
+        <v>5.9180243849260797E-5</v>
+      </c>
+      <c r="E53" s="7">
+        <v>3.9340183673007101E-5</v>
+      </c>
+      <c r="F53" s="7">
+        <v>3.6018560193482002E-5</v>
+      </c>
+      <c r="G53" s="7">
+        <v>7.9183046094049005E-5</v>
+      </c>
+      <c r="H53" s="7">
+        <v>7.6347132350851598E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7">
+        <v>3.52081165543492E-8</v>
+      </c>
+      <c r="G54" s="7">
+        <v>4.3437299605938598E-8</v>
+      </c>
+      <c r="H54" s="7">
+        <v>2.89167940565462E-8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6">
+        <v>5.079346869182E-3</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5">
+        <v>5.7448343539354E-3</v>
+      </c>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="6">
+        <v>3.1577632942183E-3</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5">
+        <v>-8.8968995555117007E-3</v>
+      </c>
+      <c r="G56" s="5">
+        <v>8.6260359263801E-3</v>
+      </c>
+      <c r="H56" s="5">
+        <v>3.4607592983867002E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="5">
+        <v>2.1892955257858698E-2</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1.1437557045226501E-2</v>
+      </c>
+      <c r="E57" s="5">
+        <v>9.2314342188504102E-3</v>
+      </c>
+      <c r="F57" s="5">
+        <v>9.9080325840570603E-3</v>
+      </c>
+      <c r="G57" s="5">
+        <v>2.0661812774542799E-3</v>
+      </c>
+      <c r="H57" s="5">
+        <v>5.4740583275342302E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5">
+        <v>-2.9986089266058002E-3</v>
+      </c>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11">
+        <v>4.8151241212829304E-3</v>
+      </c>
+      <c r="E59" s="11">
+        <v>8.2129911484487197E-3</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11">
+        <v>4.516331410723E-3</v>
+      </c>
+      <c r="H59" s="11">
+        <v>1.06609412716436E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C62" s="2"/>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E74" s="2"/>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D95" s="2"/>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E102" s="2"/>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C104" s="2"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/outputs/ML_Results/mode_MNLR/All_short_edit_mode.xlsx
+++ b/outputs/ML_Results/mode_MNLR/All_short_edit_mode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\ML_Results\mode_MNLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C2565B-F92D-40E4-AA73-D531F403F7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB6E5EB-EDF7-42A2-9652-171110375634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4999,7 +4999,7 @@
   <dimension ref="B1:N105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A13" activeCellId="2" sqref="A51:XFD51 A32:XFD32 A13:XFD13"/>
+      <selection activeCell="D35" sqref="D35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5302,20 +5302,20 @@
         <v>45</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="7">
-        <v>2.31416598723076E-8</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1.9857111606779099E-8</v>
-      </c>
-      <c r="F16" s="7">
-        <v>4.0124505118594997E-8</v>
-      </c>
-      <c r="G16" s="7">
-        <v>3.67767618663683E-8</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2.9951242487072902E-8</v>
+      <c r="D16" s="5">
+        <v>2.31416598723076E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.9857111606779099E-2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4.0124505118595E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3.6776761866368302E-2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2.9951242487072899E-2</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -5653,11 +5653,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="7">
-        <v>3.2963733444338198E-5</v>
-      </c>
-      <c r="E34" s="7">
-        <v>2.6470748771857599E-5</v>
+      <c r="D34">
+        <v>3.7730538097698698E-3</v>
+      </c>
+      <c r="E34">
+        <v>4.8032277531066597E-3</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -5670,11 +5670,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="5"/>
-      <c r="D35" s="7">
-        <v>3.7730538097698698E-9</v>
-      </c>
-      <c r="E35" s="7">
-        <v>4.8032277531066603E-9</v>
+      <c r="D35" s="5">
+        <v>3.7730538097698698E-3</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4.8032277531066597E-3</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -6043,14 +6043,14 @@
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
-      <c r="F54" s="7">
-        <v>3.52081165543492E-8</v>
-      </c>
-      <c r="G54" s="7">
-        <v>4.3437299605938598E-8</v>
-      </c>
-      <c r="H54" s="7">
-        <v>2.89167940565462E-8</v>
+      <c r="F54" s="5">
+        <v>3.5208116554349203E-2</v>
+      </c>
+      <c r="G54" s="5">
+        <v>4.3437299605938597E-2</v>
+      </c>
+      <c r="H54" s="5">
+        <v>2.8916794056546201E-2</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
@@ -6205,5 +6205,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>